--- a/biology/Zoologie/Gelechiidae/Gelechiidae.xlsx
+++ b/biology/Zoologie/Gelechiidae/Gelechiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gelechiidae sont une famille de petits insectes de l'ordre des lépidoptères (papillons).
 Cette famille comprend de très nombreux genres de microlépidoptères à la répartition mondiale. Les taxonomistes la séparent en trois sous-familles qui comptent plus de 540 genres et 4 500 espèces.
@@ -512,7 +524,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dichomeridinae
@@ -548,50 +562,790 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
-Acanthophila - Acompsia - Acraeologa - Acribologa - Acrophiletis - Acutitornus - Adelomorpha - Adelphotropha - Adoxotricha - Adrasteia - Adullamitis - Aenigma - Aeolotrocha - Aerotypia - Agathactis - Ageliarchis - Agnippe - Agonochaetia - Agriastis - Allocota - Allocotaniana - Allophlebia - Allotelphusa - Alsodryas - Altenia - Ambloma - Amblypalpis - Amblyphylla - Amphigenes - Amphitrias - Anacampsis - Ananarsia - Anapatetris - Anaphaula - Anaptilora - Anarsia - Anasphaltis - Anastomopteryx - Anastreblotis - Anathyrsotis - Angustialata - Angustiphylla - Anisoplaca - Anoecisis - Anomologa - Anomoxena - Anorthosia - Anterethista - Anthinora - Anthistarcha - Antithyra - Apatetris - Apethistis - Aphanaula - Aphanostola - Aphnogenes - Apocritica - Apodia - Aponoea - Apopira - Apotactis - Apothetoeca - Apotistatus - Aproaerema - Araeophalla - Araeophylla - Araeovalva - Aratrognathosia - Archimetzneria - Ardozyga - Aregha - Argolamprotes - Argophara - Argyritis - Argyrolacia - Aristotelia - Aristoteliodes - Arla (en) - Aroga - Arogalea - Arotria - Arotromima - Asapharcha - Aspades - Aspasiodes - Atasthalistis - Athrips - Atoponeura - Atremaea - Aulacomima - Aulidiotis - Australiopalpa - Autodectis - Autoneda - Axyrostola
-B
-Bactrolopha - Bactropaltis - Bagdadia - Barticeja - Baryzancla - Batenia - Battaristis - Begoe - Belovalva - Beltheca - Besciva - Biloba - Bilobata - Blastovalva - Brachmia - Brachyacma - Brachycrossata - Brachypsaltis - Brachyzancla - Brochometis - Bruchiana - Bryotropha - Bucolarcha
-C
-Cacelice - Calamotypa - Calliphylla - Calliprora - Calyptrotis - Canthonistis - Capidentalia - Capnosema - Carbatina - Carna - Carpatolechia - Carterica - Cartericella - Caryocolum - Catabrachmia - Catalexis - Catameces - Catatinagma - Catelaphris - Cathegesis - Catoptristis - Caulastrocecis - Cauloecista - Cecidonostola - Cecidophaga - Celetodes - Ceratophora - Cerofrontia - Cerycangela - Chaetopogon - Chalcomima - Chaliniastis - Charistica - Chelaria - Chelophoba - Chilopselaphus - Chionoda - Chionodes - Chlorolychnis - Chorivalva - Chretienella - Chretienia - Chrysesthia - Chrysia - Chrysoesthia - Chrysopora - Chthonogenes - Cirrha - Cladodes - Cleodora - Clepsimacha - Clepsimorpha - Clistothyris - Cnaphostola - Cochlevalva - Coconympha - Coleostoma - Coleotechnites - Colobodes - Colonanthes - Colopteryx - Coloptilia - Commatica - Compsolechia - Compsosaris - Coniogyra - Copocercia - Coproptilia - Copticostola - Corynaea - Cosmardia - Cotyloscia - Coudia - Coydalla - Crambodoxa - Crasimorpha - Craspedotis - Cratinitis - Cremona - Croesopola - Crossobela - Crypsimaga - Curvisignella - Cymatomorpha - Cymatoplex - Cymatoplicella - Cymotricha
-D
-Dactylethra - Dactylethrella - Dactylota - Dactylotula - Daemonarcha - Daltopora - Darlia - Decatopseustis - Dectobathra - Deimnestra - Deltolophos - Deltophora - Dendrophilia - Dentivalva - Deoclona - Deroxena - Desmaucha - Desmophylax - Deuteroptila - Diastaltica - Dichomeris - Dicranucha - Didactylota - Diprotochaeta - Dirhinosia - Dissoptila - Distinxia - Dolerotricha - Dorycnopa - Doryphora - Doryphorella - Drepanoterma - Dubitationis - Duvita
-E
-Echinoglossa - Eidothea - Elasiprora - Elasmion - Emmetrophysis - Empalactis - Empedaula - Empista - Encentrotis - Enchrysa - Encolapta - Encolpotis - Ephelictis - Ephysteris - Epibrontis - Epicharma - Epicharta - Epicorthylis - Epidola - Epilechia - Epimesophleps - Epimimastis - Epiparasia - Epiphthora - Episacta - Epistomotis - Epithectis - Eporgastis - Ereboscaeas - Ergasiola - Ergatis - Erikssonella - Eripnura - Eristhenodes - Erythriastis - Ethirostoma - Ethmiopsis - Eucatoptus - Euchionodes - Eucordylea - Eudactylota - Eudodacles - Euhomalocera - Eulamprotes - Eunebristis - Eunomarcha - Euryctista - Eurysacca - Eurysaccoides - Eurysara - Euryzancla - Euscrobipalpa - Eustalodes - Euzonomacha - Evagora - Evippe - Exceptia - Excommatica - Exoteleia
-F
-Faculta - Fapua - Faristenia - Fascista - Ficulea - Filatima - Filisignella - Flexiptera - Fortinea - Friseria - Frumenta - Furcaphora - Furcatisacculus
-G
-Gaesa - Galtica - Gambrostola - Gelechia - Gelechiodeorum - Geniadophora - Gibbosa - Gladiovalva - Glaphyrerga - Glauce - Glycerophthora - Gnorimoschema - Gnosimacha - Gobipalpa - Gomphocrates - Gonaepa - Grandipalpa - Guebla - Guenea
-H
-Hapalonoma - Hapalosaris - Haplochela - Haplovalva - Harmatitis - Harpagidia - Harpagus - Hedma - Helcystogramma - Heliangara - Helice - Helina - Hemiarcha - Heringia - Heringiola - Heterozancla - Hierangela - Hinnebergia - Holaxyra - Holcophora - Holcophoroides - Holophysis - Homoshelas - Homotima - Horridovalva - Hylograptis - Hyodectis - Hypatima - Hypelictis - Hyperecta - Hypocecis - Hypodrasia'
-I
- Idiobela - Idiophantis - Idiozancla - Ilingiotis - Ilseopsis - Inotica - Iochares - Iocharis - Irenidora - Iridesna - Ischnocraspedus - Ischnophenax - Ischnophylla - Isembola - Isochasta - Isophrictis - Issikiopteryx - Istrianis - Iulota - Ivanauskiella - Iwaruna
-K
-Kahelia - Karwandania - Keiferia - Kiwaia - Klaussattleria - Klimeschiopsis
-L
-Lacharissa - Lachnostola - Lacistodes - Lamprotes - Lanceopenna - Lanceoptera - Larcophora - Laris - Lasiarchis - Lata - Lathontogenus - Latrologa - Leistogenes - Leobatus - Leptogeneia - Lerupsia - Leuce - Leucogonia - Leucogoniella - Leucophylla - Leuronoma - Leuropalpa - Leurozancla - Lexiarcha - Limenarchis - Lioclepta - Lipatia - Lita - Lixodessa - Locharcha - Logisis - Lophaeola - Lophozancla - Lutilabria - Lysipatha
-M
-Machlotricha - Macracaena - Macrenches - Macrocalcara - Macrozancla - Magnifacia - Magonympha - Malacotricha - Megacraspedus - Megalocypha - Melitoxestis - Melitoxoides - Menecratistis - Meridorma - Merimnetria - Mesogelechia - Mesophleps - Metabolaea - Metanarsia - Metaplatyntis - Metatactis - Meteoristis - Metopios - Metopleura - Metzneria - Microcraspedus - Microdendrophilia - Microlechia - Microsetia - Mimomeris - Mirificarma - Mnesistega - Mniophaga - Molopostola - Mometa - Monochroa - Musurga - Myconita - Myrophila - Mystax - Mythographa
-N
-Naera - Nannodia - Narthecoceros - Nealyda - Neda - Neochrista - Neochronistis - Neodactylota - Neofaculta - Neofriseria - Neolechia - Neopachnistis - Neopalpa - Neopatetris - Neoschema - Neotelphusa - Nesolechia - Nevadia - Nevadopalpa - Noeza - Nomia - Nothris - Numatra - Nuntia
-O
-Ochmastis - Ochrodia - Octonodula - Oecocecis - Oegoconiodes - Oeseis - Oestomorpha - Oncerozancla - Onebala - Opacochroa - Opacopsis - Ophiolechia - Organitis - Origo - Ornativalva - Orsodytis - Orsotricha - Orthoptila - Oxybelia - Oxycryptis - Oxylechia - Oxypteryx - Oxysactis
-P
-Pachygeneia - Pachysaris - Palintropa - Paltodora - Paltoloma - Palumbina - Pancoenia - Panicotricha - Panplatyceros - Pappophorus - Parabola - Parabrachmia - Parachronistis - Paralechia - Paralida - Parallactis - Parametanarsia - Paranarsia - Paranoea - Parapodia - Parapsectris - Paraschema - Paraselotis - Parasia - Paraspistes - Parastega - Parastenolechia - Paratelphusa - Parathectis - Parelectra - Parelectroides - Paristhmia - Pauroneura - Pavolechia - Pectinophora - Pelocnistis - Pelostola - Perioristica - Pessograptis - Petalostoma - Petalostomella - Peucoteles - Pexicopia - Phaeotypa - Phaetusa - Phanerophalla - Pharangitis - Phloeocecis - Phloeograptis - Phobetica - Photodotis - Phricogenes - Phrixocrita - Phthoracma - Phthorimaea - Phylopatris - Physoptila - Picroptera - Pilocrates - Piskunovia - Pithanurga - Pityocona - Platyedra - Platymacha - Platyphalla - Plectrocosma - Plocamosaris - Poecilia - Pogochaetia - Polyhymno - Porpodryas - Pragmatodes - Prasodryas - Primischema - Proactica - Proadamas - Procharista - Proclesis - Prodosiarcha - Prolita - Promolopica - Prophoraula - Proselotis - Prosodarma - Prosomura - Prostomeus - Proteodoxa - Protolechia - Protoparachronistis - Psamathocrita - Psamathoscopa - Pseudarla - Pseudathrips - Pseudochelaria - Pseudosophronia - Pseudosymmoca - Pseudoteleia - Pseudotelphusa - Psoricoptera - Ptilostonychia - Ptocheuusa - Ptycerata - Ptychovalva - Pulicalvaria - Pycnobathra - Pycnodytis - Pyncostola
-R
-Radionerva - Recurvaria - Reichardtiella - Resupina - Reuttia - Rhadinophylla - Rhinosia - Rhobonda - Rhynchopacha - Rhynchotona - Rifseria - Rotundivalva
-S
-Sagaritis - Sarotorna - Sathrogenes - Satrapodoxa - Sattleria - Sautereopsis - Schemataspis - Schematistis - Schistonoea - Schistophila - Schistovalva - Schizovalva - Schmidtnielsenia - Schneidereria - Schuetzeia - Scindalmota - Sclerocecis - Sclerocopa - Sclerograptis - Sclerophantis - Scodes - Scrobipalpa - Scrobipalpoides - Scrobipalpomima - Scrobipalpopsis - Scrobipalposis* - Scrobipalpula - Scrobipalpuloides - Scrobipalpulopsis - Scrobischema - Scrobitasta - Scythostola - Semiomeris - Semnostoma - Semocharista - Semodictis - Semophylax - Sicera - Siderea - Simoneura - Sinevia - Sinoe - Sirogenes - Sitotroga - Smenodoca - Sophronia - Sorotacta - Spermanthrax - Sphagiocrates - Sphaleractis - Sphenocrates - Sphenogrypa - Sriferia - Stachyostoma - Stagmaturgis - Stegasta - Stenoalata - Stenolechia - Stenolechiodes - Stenopherna - Stenovalva (Amsel) - Stenovalva (Janse) - Steremniodes - Stereodmeta - Stereomita - Sterrhostoma - Stibarenches - Stigmasophronia - Stigmatoptera - Stiphrostola - Stomopteryx - Stomylia - Streniastis - Strenophila - Streyella - Strobisia - Struempelia - Symbatica - Symbolistis - Symmetrischema - Symmetrischemulum - Symphanactis - Synactias - Syncathedra - Syncopacma - Syncratomorpha - Syndesmica - Syneunetis - Syngelechia - Syngenomictis - Synthesiopalpa - Syringopais - Syrmadaula - Systasiota
-T
-Tabernillaia - Tachyptilia - Tahla - Tanycyttara - Taphrosaris - Taygete - Tecia - Telea - Teleia - Teleiodes - Teleiopsia - Teleiopsis - Telephata - Telephila - Telphusa - Tenera - Teuchophanes - Thaumaturgis - Theisoa - Thelyasceta - Thiognatha - Thiotricha - Thistricha - Tholerostola - Thriophora - Thrypsigenes - Thymosopha - Thyrsomnestis - Thyrsostoma - Tila - Tildenia - Tiranimia - Tituacia - Tocmia - Togia - Tornodoxa - Tosca - Toxidoceras - Toxoceras - Toxotacma - Trachyedra - Tricerophora - Trichembola - Trichotaphe - Tricyanaula - Tricyphistis - Tritadelpha - Trychnopalpa - Trypanisma - Trypherogenes - Tsochasta - Turcopalpa - Tuta - Tutor
-U
-Uliaria - Uncustriodonta - Untomia
-V
-Vadenia - Vazugada - Vicina - Virgula - Vladimirea
-X
-Xenolechia - Xenorrhythma - Xerometra - Xystophora
-Z
-Zalithia - Zeempista - Zelosyne - Ziminiola - Zizyphia - Zomeutis
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthophila - Acompsia - Acraeologa - Acribologa - Acrophiletis - Acutitornus - Adelomorpha - Adelphotropha - Adoxotricha - Adrasteia - Adullamitis - Aenigma - Aeolotrocha - Aerotypia - Agathactis - Ageliarchis - Agnippe - Agonochaetia - Agriastis - Allocota - Allocotaniana - Allophlebia - Allotelphusa - Alsodryas - Altenia - Ambloma - Amblypalpis - Amblyphylla - Amphigenes - Amphitrias - Anacampsis - Ananarsia - Anapatetris - Anaphaula - Anaptilora - Anarsia - Anasphaltis - Anastomopteryx - Anastreblotis - Anathyrsotis - Angustialata - Angustiphylla - Anisoplaca - Anoecisis - Anomologa - Anomoxena - Anorthosia - Anterethista - Anthinora - Anthistarcha - Antithyra - Apatetris - Apethistis - Aphanaula - Aphanostola - Aphnogenes - Apocritica - Apodia - Aponoea - Apopira - Apotactis - Apothetoeca - Apotistatus - Aproaerema - Araeophalla - Araeophylla - Araeovalva - Aratrognathosia - Archimetzneria - Ardozyga - Aregha - Argolamprotes - Argophara - Argyritis - Argyrolacia - Aristotelia - Aristoteliodes - Arla (en) - Aroga - Arogalea - Arotria - Arotromima - Asapharcha - Aspades - Aspasiodes - Atasthalistis - Athrips - Atoponeura - Atremaea - Aulacomima - Aulidiotis - Australiopalpa - Autodectis - Autoneda - Axyrostola
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bactrolopha - Bactropaltis - Bagdadia - Barticeja - Baryzancla - Batenia - Battaristis - Begoe - Belovalva - Beltheca - Besciva - Biloba - Bilobata - Blastovalva - Brachmia - Brachyacma - Brachycrossata - Brachypsaltis - Brachyzancla - Brochometis - Bruchiana - Bryotropha - Bucolarcha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cacelice - Calamotypa - Calliphylla - Calliprora - Calyptrotis - Canthonistis - Capidentalia - Capnosema - Carbatina - Carna - Carpatolechia - Carterica - Cartericella - Caryocolum - Catabrachmia - Catalexis - Catameces - Catatinagma - Catelaphris - Cathegesis - Catoptristis - Caulastrocecis - Cauloecista - Cecidonostola - Cecidophaga - Celetodes - Ceratophora - Cerofrontia - Cerycangela - Chaetopogon - Chalcomima - Chaliniastis - Charistica - Chelaria - Chelophoba - Chilopselaphus - Chionoda - Chionodes - Chlorolychnis - Chorivalva - Chretienella - Chretienia - Chrysesthia - Chrysia - Chrysoesthia - Chrysopora - Chthonogenes - Cirrha - Cladodes - Cleodora - Clepsimacha - Clepsimorpha - Clistothyris - Cnaphostola - Cochlevalva - Coconympha - Coleostoma - Coleotechnites - Colobodes - Colonanthes - Colopteryx - Coloptilia - Commatica - Compsolechia - Compsosaris - Coniogyra - Copocercia - Coproptilia - Copticostola - Corynaea - Cosmardia - Cotyloscia - Coudia - Coydalla - Crambodoxa - Crasimorpha - Craspedotis - Cratinitis - Cremona - Croesopola - Crossobela - Crypsimaga - Curvisignella - Cymatomorpha - Cymatoplex - Cymatoplicella - Cymotricha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dactylethra - Dactylethrella - Dactylota - Dactylotula - Daemonarcha - Daltopora - Darlia - Decatopseustis - Dectobathra - Deimnestra - Deltolophos - Deltophora - Dendrophilia - Dentivalva - Deoclona - Deroxena - Desmaucha - Desmophylax - Deuteroptila - Diastaltica - Dichomeris - Dicranucha - Didactylota - Diprotochaeta - Dirhinosia - Dissoptila - Distinxia - Dolerotricha - Dorycnopa - Doryphora - Doryphorella - Drepanoterma - Dubitationis - Duvita
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinoglossa - Eidothea - Elasiprora - Elasmion - Emmetrophysis - Empalactis - Empedaula - Empista - Encentrotis - Enchrysa - Encolapta - Encolpotis - Ephelictis - Ephysteris - Epibrontis - Epicharma - Epicharta - Epicorthylis - Epidola - Epilechia - Epimesophleps - Epimimastis - Epiparasia - Epiphthora - Episacta - Epistomotis - Epithectis - Eporgastis - Ereboscaeas - Ergasiola - Ergatis - Erikssonella - Eripnura - Eristhenodes - Erythriastis - Ethirostoma - Ethmiopsis - Eucatoptus - Euchionodes - Eucordylea - Eudactylota - Eudodacles - Euhomalocera - Eulamprotes - Eunebristis - Eunomarcha - Euryctista - Eurysacca - Eurysaccoides - Eurysara - Euryzancla - Euscrobipalpa - Eustalodes - Euzonomacha - Evagora - Evippe - Exceptia - Excommatica - Exoteleia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faculta - Fapua - Faristenia - Fascista - Ficulea - Filatima - Filisignella - Flexiptera - Fortinea - Friseria - Frumenta - Furcaphora - Furcatisacculus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaesa - Galtica - Gambrostola - Gelechia - Gelechiodeorum - Geniadophora - Gibbosa - Gladiovalva - Glaphyrerga - Glauce - Glycerophthora - Gnorimoschema - Gnosimacha - Gobipalpa - Gomphocrates - Gonaepa - Grandipalpa - Guebla - Guenea
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapalonoma - Hapalosaris - Haplochela - Haplovalva - Harmatitis - Harpagidia - Harpagus - Hedma - Helcystogramma - Heliangara - Helice - Helina - Hemiarcha - Heringia - Heringiola - Heterozancla - Hierangela - Hinnebergia - Holaxyra - Holcophora - Holcophoroides - Holophysis - Homoshelas - Homotima - Horridovalva - Hylograptis - Hyodectis - Hypatima - Hypelictis - Hyperecta - Hypocecis - Hypodrasia'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Idiobela - Idiophantis - Idiozancla - Ilingiotis - Ilseopsis - Inotica - Iochares - Iocharis - Irenidora - Iridesna - Ischnocraspedus - Ischnophenax - Ischnophylla - Isembola - Isochasta - Isophrictis - Issikiopteryx - Istrianis - Iulota - Ivanauskiella - Iwaruna
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kahelia - Karwandania - Keiferia - Kiwaia - Klaussattleria - Klimeschiopsis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacharissa - Lachnostola - Lacistodes - Lamprotes - Lanceopenna - Lanceoptera - Larcophora - Laris - Lasiarchis - Lata - Lathontogenus - Latrologa - Leistogenes - Leobatus - Leptogeneia - Lerupsia - Leuce - Leucogonia - Leucogoniella - Leucophylla - Leuronoma - Leuropalpa - Leurozancla - Lexiarcha - Limenarchis - Lioclepta - Lipatia - Lita - Lixodessa - Locharcha - Logisis - Lophaeola - Lophozancla - Lutilabria - Lysipatha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Machlotricha - Macracaena - Macrenches - Macrocalcara - Macrozancla - Magnifacia - Magonympha - Malacotricha - Megacraspedus - Megalocypha - Melitoxestis - Melitoxoides - Menecratistis - Meridorma - Merimnetria - Mesogelechia - Mesophleps - Metabolaea - Metanarsia - Metaplatyntis - Metatactis - Meteoristis - Metopios - Metopleura - Metzneria - Microcraspedus - Microdendrophilia - Microlechia - Microsetia - Mimomeris - Mirificarma - Mnesistega - Mniophaga - Molopostola - Mometa - Monochroa - Musurga - Myconita - Myrophila - Mystax - Mythographa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naera - Nannodia - Narthecoceros - Nealyda - Neda - Neochrista - Neochronistis - Neodactylota - Neofaculta - Neofriseria - Neolechia - Neopachnistis - Neopalpa - Neopatetris - Neoschema - Neotelphusa - Nesolechia - Nevadia - Nevadopalpa - Noeza - Nomia - Nothris - Numatra - Nuntia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ochmastis - Ochrodia - Octonodula - Oecocecis - Oegoconiodes - Oeseis - Oestomorpha - Oncerozancla - Onebala - Opacochroa - Opacopsis - Ophiolechia - Organitis - Origo - Ornativalva - Orsodytis - Orsotricha - Orthoptila - Oxybelia - Oxycryptis - Oxylechia - Oxypteryx - Oxysactis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachygeneia - Pachysaris - Palintropa - Paltodora - Paltoloma - Palumbina - Pancoenia - Panicotricha - Panplatyceros - Pappophorus - Parabola - Parabrachmia - Parachronistis - Paralechia - Paralida - Parallactis - Parametanarsia - Paranarsia - Paranoea - Parapodia - Parapsectris - Paraschema - Paraselotis - Parasia - Paraspistes - Parastega - Parastenolechia - Paratelphusa - Parathectis - Parelectra - Parelectroides - Paristhmia - Pauroneura - Pavolechia - Pectinophora - Pelocnistis - Pelostola - Perioristica - Pessograptis - Petalostoma - Petalostomella - Peucoteles - Pexicopia - Phaeotypa - Phaetusa - Phanerophalla - Pharangitis - Phloeocecis - Phloeograptis - Phobetica - Photodotis - Phricogenes - Phrixocrita - Phthoracma - Phthorimaea - Phylopatris - Physoptila - Picroptera - Pilocrates - Piskunovia - Pithanurga - Pityocona - Platyedra - Platymacha - Platyphalla - Plectrocosma - Plocamosaris - Poecilia - Pogochaetia - Polyhymno - Porpodryas - Pragmatodes - Prasodryas - Primischema - Proactica - Proadamas - Procharista - Proclesis - Prodosiarcha - Prolita - Promolopica - Prophoraula - Proselotis - Prosodarma - Prosomura - Prostomeus - Proteodoxa - Protolechia - Protoparachronistis - Psamathocrita - Psamathoscopa - Pseudarla - Pseudathrips - Pseudochelaria - Pseudosophronia - Pseudosymmoca - Pseudoteleia - Pseudotelphusa - Psoricoptera - Ptilostonychia - Ptocheuusa - Ptycerata - Ptychovalva - Pulicalvaria - Pycnobathra - Pycnodytis - Pyncostola
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Radionerva - Recurvaria - Reichardtiella - Resupina - Reuttia - Rhadinophylla - Rhinosia - Rhobonda - Rhynchopacha - Rhynchotona - Rifseria - Rotundivalva
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagaritis - Sarotorna - Sathrogenes - Satrapodoxa - Sattleria - Sautereopsis - Schemataspis - Schematistis - Schistonoea - Schistophila - Schistovalva - Schizovalva - Schmidtnielsenia - Schneidereria - Schuetzeia - Scindalmota - Sclerocecis - Sclerocopa - Sclerograptis - Sclerophantis - Scodes - Scrobipalpa - Scrobipalpoides - Scrobipalpomima - Scrobipalpopsis - Scrobipalposis* - Scrobipalpula - Scrobipalpuloides - Scrobipalpulopsis - Scrobischema - Scrobitasta - Scythostola - Semiomeris - Semnostoma - Semocharista - Semodictis - Semophylax - Sicera - Siderea - Simoneura - Sinevia - Sinoe - Sirogenes - Sitotroga - Smenodoca - Sophronia - Sorotacta - Spermanthrax - Sphagiocrates - Sphaleractis - Sphenocrates - Sphenogrypa - Sriferia - Stachyostoma - Stagmaturgis - Stegasta - Stenoalata - Stenolechia - Stenolechiodes - Stenopherna - Stenovalva (Amsel) - Stenovalva (Janse) - Steremniodes - Stereodmeta - Stereomita - Sterrhostoma - Stibarenches - Stigmasophronia - Stigmatoptera - Stiphrostola - Stomopteryx - Stomylia - Streniastis - Strenophila - Streyella - Strobisia - Struempelia - Symbatica - Symbolistis - Symmetrischema - Symmetrischemulum - Symphanactis - Synactias - Syncathedra - Syncopacma - Syncratomorpha - Syndesmica - Syneunetis - Syngelechia - Syngenomictis - Synthesiopalpa - Syringopais - Syrmadaula - Systasiota
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabernillaia - Tachyptilia - Tahla - Tanycyttara - Taphrosaris - Taygete - Tecia - Telea - Teleia - Teleiodes - Teleiopsia - Teleiopsis - Telephata - Telephila - Telphusa - Tenera - Teuchophanes - Thaumaturgis - Theisoa - Thelyasceta - Thiognatha - Thiotricha - Thistricha - Tholerostola - Thriophora - Thrypsigenes - Thymosopha - Thyrsomnestis - Thyrsostoma - Tila - Tildenia - Tiranimia - Tituacia - Tocmia - Togia - Tornodoxa - Tosca - Toxidoceras - Toxoceras - Toxotacma - Trachyedra - Tricerophora - Trichembola - Trichotaphe - Tricyanaula - Tricyphistis - Tritadelpha - Trychnopalpa - Trypanisma - Trypherogenes - Tsochasta - Turcopalpa - Tuta - Tutor
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uliaria - Uncustriodonta - Untomia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vadenia - Vazugada - Vicina - Virgula - Vladimirea
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xenolechia - Xenorrhythma - Xerometra - Xystophora
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gelechiidae</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gelechiidae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zalithia - Zeempista - Zelosyne - Ziminiola - Zizyphia - Zomeutis
 Sur les autres projets Wikimedia :
 Gelechiidae, sur Wikimedia CommonsGelechiidae, sur Wikispecies
 </t>
